--- a/FacebookPosts2021.xlsx
+++ b/FacebookPosts2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B48F440-BAE1-264F-B18A-1BAAB2FF8997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5ACEB-FA1D-334E-84B5-4EC20EEF919E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Languages</t>
   </si>
   <si>
-    <t>Posted</t>
-  </si>
-  <si>
     <t>Audience Targeting</t>
   </si>
   <si>
@@ -124,12 +121,18 @@
   </si>
   <si>
     <t>Lifetime Video length</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -167,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4AABF9-CD3A-754B-B237-EF7903989E38}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AH1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,89 +516,830 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G248" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FacebookPosts2021.xlsx
+++ b/FacebookPosts2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5ACEB-FA1D-334E-84B5-4EC20EEF919E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E31293-F298-F84E-8404-BF7E48109DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -173,7 +173,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:AH248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,31 +601,184 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>44287</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>44288</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>44289</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>44290</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>343</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>44291</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>44292</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>3432</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>44293</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>44294</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>44295</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G11" s="2"/>

--- a/FacebookPosts2021.xlsx
+++ b/FacebookPosts2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E31293-F298-F84E-8404-BF7E48109DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01553E9-AFC5-CD4E-9FDF-4DAB78745644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
+    <workbookView xWindow="9880" yWindow="4060" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:AH248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,184 +601,31 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G2" s="2">
-        <v>44287</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>45</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G3" s="2">
-        <v>44288</v>
-      </c>
-      <c r="I3">
-        <v>33</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G4" s="2">
-        <v>44289</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G5" s="2">
-        <v>44290</v>
-      </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>343</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G6" s="2">
-        <v>44291</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G7" s="2">
-        <v>44292</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>3432</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G8" s="2">
-        <v>44293</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G9" s="2">
-        <v>44294</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G10" s="2">
-        <v>44295</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G11" s="2"/>

--- a/FacebookPosts2021.xlsx
+++ b/FacebookPosts2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF/NPLF-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/PycharmProjects/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01553E9-AFC5-CD4E-9FDF-4DAB78745644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982E592-9072-7449-B1C1-04AD824FDEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="4060" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
+    <workbookView xWindow="5560" yWindow="2500" windowWidth="28040" windowHeight="17440" xr2:uid="{67224CD1-7AFB-C34D-94E3-603B098DD09B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
   <si>
     <t>Post ID</t>
   </si>
@@ -124,6 +124,225 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>97150433029_10157878664968030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157878664968030</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>97150433029_10157878475688030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157878475688030</t>
+  </si>
+  <si>
+    <t>97150433029_10157877877583030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157877877583030</t>
+  </si>
+  <si>
+    <t>Thank you for celebrating your birthday by supporting Nashville Public Library! We appreciate your commitment to literacy &amp; learning.</t>
+  </si>
+  <si>
+    <t>97150433029_10157875346658030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157875346658030</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>97150433029_10157875198753030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157875198753030</t>
+  </si>
+  <si>
+    <t>97150433029_10157875086593030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157875086593030</t>
+  </si>
+  <si>
+    <t>Thanks to Nfocus Magazine for highlighting our 2020 Stay-at-Home Literary Award Gala. We had such a great time showcasing Nashville Public Library patrons and their stories at our virtual event.  https://www.nfocusnashville.com/events/galas-soir-es/media-gallery/21144812/literary-award-gala-celebrates-literacy-across-nashville</t>
+  </si>
+  <si>
+    <t>97150433029_10157868335688030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157868335688030</t>
+  </si>
+  <si>
+    <t>One week ago today, Kamala Harris made history as the first woman sworn in as Vice President. Last year, Nashville Public Library debuted the Votes for Women room, highlighting the brave women who paved the way for this historic moment. We're proud #Nashville has the VFW room to showcase the shoulders on which our new VP stands and we're excited to see glass ceilings continue to shatter.    https://www.newschannel5.com/news/nashville-public-library-votes-for-women-exhibit-displays-who-paved-the-way-for-kamala-harris NewsChannel 5 Nashville #VotesforWomen #VFW #iringthebell</t>
+  </si>
+  <si>
+    <t>97150433029_10157864962358030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157864962358030</t>
+  </si>
+  <si>
+    <t>Don't forget to join us for the Next Chapter Society Book Club tonight at 6:30PM for a lively discussion about The Truths We Hold by Vice President Kamala Harris. Haven't read the book? You are still welcome to attend! https://nplf.org/events/ncsbookclub/</t>
+  </si>
+  <si>
+    <t>97150433029_10157862005938030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157862005938030</t>
+  </si>
+  <si>
+    <t>97150433029_10157861543608030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157861543608030</t>
+  </si>
+  <si>
+    <t>"The Nashville Public Library experienced a record number of digital downloads in 2020, with users checking out more than two million online materials."  We are blown away by library patrons' dedication to learning and ability to adapt to virtual experiences. Nashville Public Library has an incredible variety of online resources, programs and digital material. Read more about these services and their newfound demand in this article from NewsChannel 5 Nashville: https://www.newschannel5.com/news/nashville-public-library-sets-digital-download-records-in-2020.</t>
+  </si>
+  <si>
+    <t>97150433029_10157852066803030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157852066803030</t>
+  </si>
+  <si>
+    <t>97150433029_10157852066038030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157852066038030</t>
+  </si>
+  <si>
+    <t>We are very excited and grateful to announce that thanks to your generosity, we raised over $31,000 for our year-end campaign. With the incredible success of #GivingTuesday, our year-end fundraising total is $50,130! Your support funds programs like Limitless Libraries, Adult Literacy and Bringing Books to Life. Thank you for helping us continue making literacy and learning accessible to all.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>97150433029_10157847163008030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157847163008030</t>
+  </si>
+  <si>
+    <t>Happy Inauguration Day! It's a perfect day to start reading The Truths We Hold by Vice President, Kamala Harris, and get ready to join our Next Chapter Society next week for a lively discussion about the book.  nplf.org/events/ncsbookclub/</t>
+  </si>
+  <si>
+    <t>97150433029_10157845552838030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157845552838030</t>
+  </si>
+  <si>
+    <t>It is only with your support that Nashville Public Library is able to provide critical programs like the early literacy program, Bringing Books to Life! From April 2020 to December 2020, BBTL provided 192 virtual programs with 7,955 live attendees/views. Thank you so much for your continued support and generosity!</t>
+  </si>
+  <si>
+    <t>97150433029_10157843357993030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157843357993030</t>
+  </si>
+  <si>
+    <t>Happy Martin Luther King Jr. Day! Celebrate his legacy by exploring children's titles from Nashville Public Library.</t>
+  </si>
+  <si>
+    <t>97150433029_10157837013663030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157837013663030</t>
+  </si>
+  <si>
+    <t>Join the Next Chapter Society Tuesday, January 26, to discuss The Truths We Hold written by our incoming Vice President, Kamala Harris. nplf.org/events/ncsbookclub/ #bookclub #TheTruthsWeHold #KamalaHarris</t>
+  </si>
+  <si>
+    <t>97150433029_10157835003943030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157835003943030</t>
+  </si>
+  <si>
+    <t>In December, the Puppet Truck offered special holiday/winter-themed story times to Nashville Public Library sites. How cute is this snowman collage craft activity that was delivered to each site in addition to the book "Snowballs" by Lois Elhert? Share your own winter crafts below!</t>
+  </si>
+  <si>
+    <t>97150433029_10157832886943030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157832886943030</t>
+  </si>
+  <si>
+    <t>Our social justice-themed Virtual Literary Trivia is only a few hours away. It's a blast playing alone or with a team! Register here: https://nplf.org/events/ncs-literary-trivia/.</t>
+  </si>
+  <si>
+    <t>97150433029_10157832880888030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157832880888030</t>
+  </si>
+  <si>
+    <t>Excited to attend, this evening, and hope you will join us for Next Chapter Society’s Literary Trivia Night! Any one can join from anywhere...6:30pm CST --&gt; Sign up here: https://nplf.org/events/ncs-literary-trivia/</t>
+  </si>
+  <si>
+    <t>97150433029_10157832818243030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157832818243030</t>
+  </si>
+  <si>
+    <t>97150433029_10157830527638030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157830527638030</t>
+  </si>
+  <si>
+    <t>Nashville Public Library Foundation</t>
+  </si>
+  <si>
+    <t>97150433029_10157830523113030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157830523113030</t>
+  </si>
+  <si>
+    <t>You won't want to miss The Professor's At-Home Story Time today at 10:30 a.m. with special guest Yuyi Morales reading the Nashville Reads book, Dreamers! It's one our favorites! Tune in via Facebook Live and enjoy Wishing Chair's puppetry from the comfort of your home. https://fb.me/e/11ERG3aqO</t>
+  </si>
+  <si>
+    <t>97150433029_10157822084818030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157822084818030</t>
+  </si>
+  <si>
+    <t>Former NPLF board member, Ann Patchett discusses her involvement with the foundation, our partnership with Parnassus books and much more in this great piece from Naples Daily News. We're excited to be keeping in touch with this acclaimed author and wish her continued success!  https://www.naplesnews.com/story/life/2021/01/06/dutch-house-author-ann-patchett-kicks-off-collier-county-libraries-lecture-series-nick-linn/4134011001/</t>
+  </si>
+  <si>
+    <t>97150433029_10157820242473030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157820242473030</t>
+  </si>
+  <si>
+    <t>97150433029_10157820241838030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157820241838030</t>
+  </si>
+  <si>
+    <t>97150433029_10157820241758030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NPLFoundation/posts/10157820241758030</t>
   </si>
 </sst>
 </file>
@@ -133,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +367,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,10 +394,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +722,13 @@
   <dimension ref="A1:AH248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G2" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -601,96 +835,2722 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44225.556134259263</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4">
+        <v>83</v>
+      </c>
+      <c r="J2" s="4">
+        <v>83</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>83</v>
+      </c>
+      <c r="M2" s="4">
+        <v>83</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>79</v>
+      </c>
+      <c r="U2" s="4">
+        <v>79</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44225.481874999998</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4">
+        <v>83</v>
+      </c>
+      <c r="J3" s="4">
+        <v>83</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>83</v>
+      </c>
+      <c r="M3" s="4">
+        <v>83</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>74</v>
+      </c>
+      <c r="U3" s="4">
+        <v>74</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44225.275625000002</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4">
+        <v>354</v>
+      </c>
+      <c r="J4" s="4">
+        <v>354</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>359</v>
+      </c>
+      <c r="M4" s="4">
+        <v>359</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>13</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>349</v>
+      </c>
+      <c r="U4" s="4">
+        <v>344</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44224.42800925926</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4">
+        <v>180</v>
+      </c>
+      <c r="J5" s="4">
+        <v>180</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>182</v>
+      </c>
+      <c r="M5" s="4">
+        <v>182</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>174</v>
+      </c>
+      <c r="U5" s="4">
+        <v>172</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5">
+        <v>44224.368946759256</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
+        <v>194</v>
+      </c>
+      <c r="J6" s="4">
+        <v>194</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>196</v>
+      </c>
+      <c r="M6" s="4">
+        <v>196</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>189</v>
+      </c>
+      <c r="U6" s="4">
+        <v>187</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44224.33116898148</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4">
+        <v>77</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>79</v>
+      </c>
+      <c r="M7" s="4">
+        <v>79</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>74</v>
+      </c>
+      <c r="U7" s="4">
+        <v>73</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44223.244120370371</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4">
+        <v>247</v>
+      </c>
+      <c r="J8" s="4">
+        <v>247</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>250</v>
+      </c>
+      <c r="M8" s="4">
+        <v>250</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>11</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>128</v>
+      </c>
+      <c r="U8" s="4">
+        <v>125</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44222.319108796299</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4">
+        <v>63</v>
+      </c>
+      <c r="J9" s="4">
+        <v>63</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>66</v>
+      </c>
+      <c r="M9" s="4">
+        <v>66</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>52</v>
+      </c>
+      <c r="U9" s="4">
+        <v>49</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44221.430844907409</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>100</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>103</v>
+      </c>
+      <c r="M10" s="4">
+        <v>103</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>98</v>
+      </c>
+      <c r="U10" s="4">
+        <v>95</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44221.264652777776</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4">
+        <v>563</v>
+      </c>
+      <c r="J11" s="4">
+        <v>563</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>577</v>
+      </c>
+      <c r="M11" s="4">
+        <v>577</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>71</v>
+      </c>
+      <c r="P11" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>9</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>441</v>
+      </c>
+      <c r="U11" s="4">
+        <v>433</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44218.358553240738</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4">
+        <v>38</v>
+      </c>
+      <c r="J12" s="4">
+        <v>38</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>40</v>
+      </c>
+      <c r="M12" s="4">
+        <v>40</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>36</v>
+      </c>
+      <c r="U12" s="4">
+        <v>34</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44218.35833333333</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>256</v>
+      </c>
+      <c r="J13" s="4">
+        <v>256</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>261</v>
+      </c>
+      <c r="M13" s="4">
+        <v>261</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>22</v>
+      </c>
+      <c r="P13" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>6</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>226</v>
+      </c>
+      <c r="U13" s="4">
+        <v>222</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44216.255243055559</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="4">
+        <v>199</v>
+      </c>
+      <c r="J14" s="4">
+        <v>199</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>206</v>
+      </c>
+      <c r="M14" s="4">
+        <v>206</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>7</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>127</v>
+      </c>
+      <c r="U14" s="4">
+        <v>123</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44215.368900462963</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="4">
+        <v>145</v>
+      </c>
+      <c r="J15" s="4">
+        <v>145</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>150</v>
+      </c>
+      <c r="M15" s="4">
+        <v>150</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>141</v>
+      </c>
+      <c r="U15" s="4">
+        <v>136</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="5">
+        <v>44214.324050925927</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4">
+        <v>139</v>
+      </c>
+      <c r="J16" s="4">
+        <v>139</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>144</v>
+      </c>
+      <c r="M16" s="4">
+        <v>144</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>8</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>132</v>
+      </c>
+      <c r="U16" s="4">
+        <v>127</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5">
+        <v>44211.384710648148</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="4">
+        <v>259</v>
+      </c>
+      <c r="J17" s="4">
+        <v>259</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>273</v>
+      </c>
+      <c r="M17" s="4">
+        <v>273</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>2</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>179</v>
+      </c>
+      <c r="U17" s="4">
+        <v>166</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44210.405185185184</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4">
+        <v>162</v>
+      </c>
+      <c r="J18" s="4">
+        <v>162</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>167</v>
+      </c>
+      <c r="M18" s="4">
+        <v>167</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>9</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>151</v>
+      </c>
+      <c r="U18" s="4">
+        <v>146</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5">
+        <v>44209.583344907405</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="4">
+        <v>123</v>
+      </c>
+      <c r="J19" s="4">
+        <v>123</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>129</v>
+      </c>
+      <c r="M19" s="4">
+        <v>129</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>112</v>
+      </c>
+      <c r="U19" s="4">
+        <v>106</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44209.462071759262</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="4">
+        <v>72</v>
+      </c>
+      <c r="J20" s="4">
+        <v>72</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>75</v>
+      </c>
+      <c r="M20" s="4">
+        <v>75</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>67</v>
+      </c>
+      <c r="U20" s="4">
+        <v>65</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44209.436365740738</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4">
+        <v>111</v>
+      </c>
+      <c r="J21" s="4">
+        <v>111</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>114</v>
+      </c>
+      <c r="M21" s="4">
+        <v>114</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>107</v>
+      </c>
+      <c r="U21" s="4">
+        <v>104</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5">
+        <v>44208.247430555559</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4">
+        <v>110</v>
+      </c>
+      <c r="J22" s="4">
+        <v>110</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>113</v>
+      </c>
+      <c r="M22" s="4">
+        <v>113</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>3</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>104</v>
+      </c>
+      <c r="U22" s="4">
+        <v>102</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44208.245057870372</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="4">
+        <v>133</v>
+      </c>
+      <c r="J23" s="4">
+        <v>133</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>138</v>
+      </c>
+      <c r="M23" s="4">
+        <v>138</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>4</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>128</v>
+      </c>
+      <c r="U23" s="4">
+        <v>123</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44204.281006944446</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="4">
+        <v>316</v>
+      </c>
+      <c r="J24" s="4">
+        <v>317</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>316</v>
+      </c>
+      <c r="M24" s="4">
+        <v>316</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>14</v>
+      </c>
+      <c r="P24" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>7</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>252</v>
+      </c>
+      <c r="U24" s="4">
+        <v>248</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5">
+        <v>44203.319374999999</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="4">
+        <v>84</v>
+      </c>
+      <c r="J25" s="4">
+        <v>84</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>87</v>
+      </c>
+      <c r="M25" s="4">
+        <v>87</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>76</v>
+      </c>
+      <c r="U25" s="4">
+        <v>73</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44203.319212962961</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="4">
+        <v>60</v>
+      </c>
+      <c r="J26" s="4">
+        <v>60</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>63</v>
+      </c>
+      <c r="M26" s="4">
+        <v>63</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>48</v>
+      </c>
+      <c r="U26" s="4">
+        <v>45</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="5">
+        <v>44203.319120370368</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4">
+        <v>70</v>
+      </c>
+      <c r="J27" s="4">
+        <v>70</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>73</v>
+      </c>
+      <c r="M27" s="4">
+        <v>73</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>56</v>
+      </c>
+      <c r="U27" s="4">
+        <v>53</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.2">
